--- a/xlsx/政策_政策_计划_intext.xlsx
+++ b/xlsx/政策_政策_计划_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="250">
   <si>
     <t>计划</t>
   </si>
@@ -765,240 +765,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://ar.wikipedia.org/wiki/%D8%AA%D8%AE%D8%B7%D9%8A%D8%B7</t>
-  </si>
-  <si>
-    <t>تخطيط – 阿拉伯语</t>
-  </si>
-  <si>
-    <t>https://as.wikipedia.org/wiki/%E0%A6%AA%E0%A7%B0%E0%A6%BF%E0%A6%95%E0%A6%B2%E0%A7%8D%E0%A6%AA%E0%A6%A8%E0%A6%BE</t>
-  </si>
-  <si>
-    <t>পৰিকল্পনা – 阿萨姆语</t>
-  </si>
-  <si>
-    <t>https://be-x-old.wikipedia.org/wiki/%D0%9F%D0%BB%D1%8F%D0%BD%D0%B0%D0%B2%D0%B0%D0%BD%D1%8C%D0%BD%D0%B5</t>
-  </si>
-  <si>
-    <t>Плянаваньне – Belarusian (Taraškievica orthography)</t>
-  </si>
-  <si>
-    <t>https://bg.wikipedia.org/wiki/%D0%9F%D0%BB%D0%B0%D0%BD%D0%B8%D1%80%D0%B0%D0%BD%D0%B5</t>
-  </si>
-  <si>
-    <t>Планиране – 保加利亚语</t>
-  </si>
-  <si>
-    <t>https://da.wikipedia.org/wiki/Planl%C3%A6gning</t>
-  </si>
-  <si>
-    <t>Planlægning – 丹麦语</t>
-  </si>
-  <si>
-    <t>https://de.wikipedia.org/wiki/Planung</t>
-  </si>
-  <si>
-    <t>Planung – 德语</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Planning</t>
-  </si>
-  <si>
-    <t>Planning – 英语</t>
-  </si>
-  <si>
-    <t>https://eo.wikipedia.org/wiki/Plano</t>
-  </si>
-  <si>
-    <t>Plano – 世界语</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Planeamiento</t>
-  </si>
-  <si>
-    <t>Planeamiento – 西班牙语</t>
-  </si>
-  <si>
-    <t>https://eu.wikipedia.org/wiki/Plangintza</t>
-  </si>
-  <si>
-    <t>Plangintza – 巴斯克语</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A8%D8%B1%D9%86%D8%A7%D9%85%D9%87%E2%80%8C%D8%B1%DB%8C%D8%B2%DB%8C</t>
-  </si>
-  <si>
-    <t>برنامه‌ریزی – 波斯语</t>
-  </si>
-  <si>
-    <t>https://fr.wikipedia.org/wiki/Planification</t>
-  </si>
-  <si>
-    <t>Planification – 法语</t>
-  </si>
-  <si>
-    <t>https://gl.wikipedia.org/wiki/Planificaci%C3%B3n</t>
-  </si>
-  <si>
-    <t>Planificación – 加利西亚语</t>
-  </si>
-  <si>
-    <t>https://he.wikipedia.org/wiki/%D7%AA%D7%9B%D7%A0%D7%95%D7%9F_(%D7%A4%D7%A2%D7%95%D7%9C%D7%94)</t>
-  </si>
-  <si>
-    <t>תכנון (פעולה) – 希伯来语</t>
-  </si>
-  <si>
-    <t>https://hi.wikipedia.org/wiki/%E0%A4%86%E0%A4%AF%E0%A5%8B%E0%A4%9C%E0%A4%A8</t>
-  </si>
-  <si>
-    <t>आयोजन – 印地语</t>
-  </si>
-  <si>
-    <t>https://hr.wikipedia.org/wiki/Planiranje_(ekonomija)</t>
-  </si>
-  <si>
-    <t>Planiranje (ekonomija) – 克罗地亚语</t>
-  </si>
-  <si>
-    <t>https://id.wikipedia.org/wiki/Perencanaan</t>
-  </si>
-  <si>
-    <t>Perencanaan – 印度尼西亚语</t>
-  </si>
-  <si>
-    <t>https://it.wikipedia.org/wiki/Pianificazione</t>
-  </si>
-  <si>
-    <t>Pianificazione – 意大利语</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E4%BC%81%E7%94%BB</t>
-  </si>
-  <si>
-    <t>企画 – 日语</t>
-  </si>
-  <si>
-    <t>https://ka.wikipedia.org/wiki/%E1%83%93%E1%83%90%E1%83%92%E1%83%94%E1%83%92%E1%83%9B%E1%83%95%E1%83%90</t>
-  </si>
-  <si>
-    <t>დაგეგმვა – 格鲁吉亚语</t>
-  </si>
-  <si>
-    <t>https://kk.wikipedia.org/wiki/%D0%96%D0%BE%D1%81%D0%BF%D0%B0%D1%80%D0%BB%D0%B0%D1%83</t>
-  </si>
-  <si>
-    <t>Жоспарлау – 哈萨克语</t>
-  </si>
-  <si>
-    <t>https://kn.wikipedia.org/wiki/%E0%B2%AF%E0%B3%8B%E0%B2%9C%E0%B2%BF%E0%B2%B8%E0%B3%81%E0%B2%B5%E0%B2%BF%E0%B2%95%E0%B3%86</t>
-  </si>
-  <si>
-    <t>ಯೋಜಿಸುವಿಕೆ – 卡纳达语</t>
-  </si>
-  <si>
-    <t>https://lt.wikipedia.org/wiki/Planavimas</t>
-  </si>
-  <si>
-    <t>Planavimas – 立陶宛语</t>
-  </si>
-  <si>
-    <t>https://nl.wikipedia.org/wiki/Planning</t>
-  </si>
-  <si>
-    <t>Planning – 荷兰语</t>
-  </si>
-  <si>
-    <t>https://nn.wikipedia.org/wiki/Planlegging</t>
-  </si>
-  <si>
-    <t>Planlegging – 挪威尼诺斯克语</t>
-  </si>
-  <si>
-    <t>https://pl.wikipedia.org/wiki/Planowanie</t>
-  </si>
-  <si>
-    <t>Planowanie – 波兰语</t>
-  </si>
-  <si>
-    <t>https://pt.wikipedia.org/wiki/Planejamento</t>
-  </si>
-  <si>
-    <t>Planejamento – 葡萄牙语</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%9F%D0%BB%D0%B0%D0%BD%D0%B8%D1%80%D0%BE%D0%B2%D0%B0%D0%BD%D0%B8%D0%B5</t>
-  </si>
-  <si>
-    <t>Планирование – 俄语</t>
-  </si>
-  <si>
-    <t>https://simple.wikipedia.org/wiki/Planning</t>
-  </si>
-  <si>
-    <t>Planning – Simple English</t>
-  </si>
-  <si>
-    <t>https://sl.wikipedia.org/wiki/Na%C4%8Drt</t>
-  </si>
-  <si>
-    <t>Načrt – 斯洛文尼亚语</t>
-  </si>
-  <si>
-    <t>https://sn.wikipedia.org/wiki/Kuronga</t>
-  </si>
-  <si>
-    <t>Kuronga – 绍纳语</t>
-  </si>
-  <si>
-    <t>https://sr.wikipedia.org/wiki/%D0%9F%D0%BB%D0%B0%D0%BD%D0%B8%D1%80%D0%B0%D1%9A%D0%B5</t>
-  </si>
-  <si>
-    <t>Планирање – 塞尔维亚语</t>
-  </si>
-  <si>
-    <t>https://sv.wikipedia.org/wiki/Planering</t>
-  </si>
-  <si>
-    <t>Planering – 瑞典语</t>
-  </si>
-  <si>
-    <t>https://sw.wikipedia.org/wiki/Mipango</t>
-  </si>
-  <si>
-    <t>Mipango – 斯瓦希里语</t>
-  </si>
-  <si>
-    <t>https://ta.wikipedia.org/wiki/%E0%AE%A4%E0%AE%BF%E0%AE%9F%E0%AF%8D%E0%AE%9F%E0%AE%AE%E0%AE%BF%E0%AE%9F%E0%AE%B2%E0%AF%8D</t>
-  </si>
-  <si>
-    <t>திட்டமிடல் – 泰米尔语</t>
-  </si>
-  <si>
-    <t>https://tl.wikipedia.org/wiki/Pagpaplano</t>
-  </si>
-  <si>
-    <t>Pagpaplano – 他加禄语</t>
-  </si>
-  <si>
-    <t>https://uk.wikipedia.org/wiki/%D0%9F%D0%BB%D0%B0%D0%BD%D1%83%D0%B2%D0%B0%D0%BD%D0%BD%D1%8F</t>
-  </si>
-  <si>
-    <t>Планування – 乌克兰语</t>
-  </si>
-  <si>
-    <t>https://vi.wikipedia.org/wiki/Ho%E1%BA%A1ch_%C4%91%E1%BB%8Bnh</t>
-  </si>
-  <si>
-    <t>Hoạch định – 越南语</t>
-  </si>
-  <si>
-    <t>https://yi.wikipedia.org/wiki/%D7%A4%D7%9C%D7%90%D7%9F</t>
-  </si>
-  <si>
-    <t>פלאן – 意第绪语</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4977,1137 +4743,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126" t="s">
-        <v>1</v>
-      </c>
-      <c r="D126" t="n">
-        <v>125</v>
-      </c>
-      <c r="E126" t="s">
-        <v>250</v>
-      </c>
-      <c r="F126" t="s">
-        <v>251</v>
-      </c>
-      <c r="G126" t="n">
-        <v>1</v>
-      </c>
-      <c r="H126" t="s">
-        <v>4</v>
-      </c>
-      <c r="I126" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="s">
-        <v>0</v>
-      </c>
-      <c r="C127" t="s">
-        <v>1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>126</v>
-      </c>
-      <c r="E127" t="s">
-        <v>252</v>
-      </c>
-      <c r="F127" t="s">
-        <v>253</v>
-      </c>
-      <c r="G127" t="n">
-        <v>1</v>
-      </c>
-      <c r="H127" t="s">
-        <v>4</v>
-      </c>
-      <c r="I127" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="s">
-        <v>0</v>
-      </c>
-      <c r="C128" t="s">
-        <v>1</v>
-      </c>
-      <c r="D128" t="n">
-        <v>127</v>
-      </c>
-      <c r="E128" t="s">
-        <v>254</v>
-      </c>
-      <c r="F128" t="s">
-        <v>255</v>
-      </c>
-      <c r="G128" t="n">
-        <v>1</v>
-      </c>
-      <c r="H128" t="s">
-        <v>4</v>
-      </c>
-      <c r="I128" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="s">
-        <v>0</v>
-      </c>
-      <c r="C129" t="s">
-        <v>1</v>
-      </c>
-      <c r="D129" t="n">
-        <v>128</v>
-      </c>
-      <c r="E129" t="s">
-        <v>256</v>
-      </c>
-      <c r="F129" t="s">
-        <v>257</v>
-      </c>
-      <c r="G129" t="n">
-        <v>1</v>
-      </c>
-      <c r="H129" t="s">
-        <v>4</v>
-      </c>
-      <c r="I129" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="s">
-        <v>0</v>
-      </c>
-      <c r="C130" t="s">
-        <v>1</v>
-      </c>
-      <c r="D130" t="n">
-        <v>129</v>
-      </c>
-      <c r="E130" t="s">
-        <v>258</v>
-      </c>
-      <c r="F130" t="s">
-        <v>259</v>
-      </c>
-      <c r="G130" t="n">
-        <v>1</v>
-      </c>
-      <c r="H130" t="s">
-        <v>4</v>
-      </c>
-      <c r="I130" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="s">
-        <v>0</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1</v>
-      </c>
-      <c r="D131" t="n">
-        <v>130</v>
-      </c>
-      <c r="E131" t="s">
-        <v>260</v>
-      </c>
-      <c r="F131" t="s">
-        <v>261</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1</v>
-      </c>
-      <c r="H131" t="s">
-        <v>4</v>
-      </c>
-      <c r="I131" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="s">
-        <v>0</v>
-      </c>
-      <c r="C132" t="s">
-        <v>1</v>
-      </c>
-      <c r="D132" t="n">
-        <v>131</v>
-      </c>
-      <c r="E132" t="s">
-        <v>262</v>
-      </c>
-      <c r="F132" t="s">
-        <v>263</v>
-      </c>
-      <c r="G132" t="n">
-        <v>2</v>
-      </c>
-      <c r="H132" t="s">
-        <v>4</v>
-      </c>
-      <c r="I132" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="s">
-        <v>0</v>
-      </c>
-      <c r="C133" t="s">
-        <v>1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>132</v>
-      </c>
-      <c r="E133" t="s">
-        <v>264</v>
-      </c>
-      <c r="F133" t="s">
-        <v>265</v>
-      </c>
-      <c r="G133" t="n">
-        <v>1</v>
-      </c>
-      <c r="H133" t="s">
-        <v>4</v>
-      </c>
-      <c r="I133" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="s">
-        <v>0</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1</v>
-      </c>
-      <c r="D134" t="n">
-        <v>133</v>
-      </c>
-      <c r="E134" t="s">
-        <v>266</v>
-      </c>
-      <c r="F134" t="s">
-        <v>267</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1</v>
-      </c>
-      <c r="H134" t="s">
-        <v>4</v>
-      </c>
-      <c r="I134" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="s">
-        <v>0</v>
-      </c>
-      <c r="C135" t="s">
-        <v>1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>134</v>
-      </c>
-      <c r="E135" t="s">
-        <v>268</v>
-      </c>
-      <c r="F135" t="s">
-        <v>269</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1</v>
-      </c>
-      <c r="H135" t="s">
-        <v>4</v>
-      </c>
-      <c r="I135" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="s">
-        <v>0</v>
-      </c>
-      <c r="C136" t="s">
-        <v>1</v>
-      </c>
-      <c r="D136" t="n">
-        <v>135</v>
-      </c>
-      <c r="E136" t="s">
-        <v>270</v>
-      </c>
-      <c r="F136" t="s">
-        <v>271</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1</v>
-      </c>
-      <c r="H136" t="s">
-        <v>4</v>
-      </c>
-      <c r="I136" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>136</v>
-      </c>
-      <c r="E137" t="s">
-        <v>272</v>
-      </c>
-      <c r="F137" t="s">
-        <v>273</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1</v>
-      </c>
-      <c r="H137" t="s">
-        <v>4</v>
-      </c>
-      <c r="I137" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C138" t="s">
-        <v>1</v>
-      </c>
-      <c r="D138" t="n">
-        <v>137</v>
-      </c>
-      <c r="E138" t="s">
-        <v>274</v>
-      </c>
-      <c r="F138" t="s">
-        <v>275</v>
-      </c>
-      <c r="G138" t="n">
-        <v>1</v>
-      </c>
-      <c r="H138" t="s">
-        <v>4</v>
-      </c>
-      <c r="I138" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="s">
-        <v>0</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1</v>
-      </c>
-      <c r="D139" t="n">
-        <v>138</v>
-      </c>
-      <c r="E139" t="s">
-        <v>276</v>
-      </c>
-      <c r="F139" t="s">
-        <v>277</v>
-      </c>
-      <c r="G139" t="n">
-        <v>1</v>
-      </c>
-      <c r="H139" t="s">
-        <v>4</v>
-      </c>
-      <c r="I139" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
-        <v>0</v>
-      </c>
-      <c r="C140" t="s">
-        <v>1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>139</v>
-      </c>
-      <c r="E140" t="s">
-        <v>278</v>
-      </c>
-      <c r="F140" t="s">
-        <v>279</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1</v>
-      </c>
-      <c r="H140" t="s">
-        <v>4</v>
-      </c>
-      <c r="I140" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C141" t="s">
-        <v>1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>140</v>
-      </c>
-      <c r="E141" t="s">
-        <v>280</v>
-      </c>
-      <c r="F141" t="s">
-        <v>281</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1</v>
-      </c>
-      <c r="H141" t="s">
-        <v>4</v>
-      </c>
-      <c r="I141" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="s">
-        <v>0</v>
-      </c>
-      <c r="C142" t="s">
-        <v>1</v>
-      </c>
-      <c r="D142" t="n">
-        <v>141</v>
-      </c>
-      <c r="E142" t="s">
-        <v>282</v>
-      </c>
-      <c r="F142" t="s">
-        <v>283</v>
-      </c>
-      <c r="G142" t="n">
-        <v>1</v>
-      </c>
-      <c r="H142" t="s">
-        <v>4</v>
-      </c>
-      <c r="I142" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="s">
-        <v>0</v>
-      </c>
-      <c r="C143" t="s">
-        <v>1</v>
-      </c>
-      <c r="D143" t="n">
-        <v>142</v>
-      </c>
-      <c r="E143" t="s">
-        <v>284</v>
-      </c>
-      <c r="F143" t="s">
-        <v>285</v>
-      </c>
-      <c r="G143" t="n">
-        <v>1</v>
-      </c>
-      <c r="H143" t="s">
-        <v>4</v>
-      </c>
-      <c r="I143" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="s">
-        <v>0</v>
-      </c>
-      <c r="C144" t="s">
-        <v>1</v>
-      </c>
-      <c r="D144" t="n">
-        <v>143</v>
-      </c>
-      <c r="E144" t="s">
-        <v>286</v>
-      </c>
-      <c r="F144" t="s">
-        <v>287</v>
-      </c>
-      <c r="G144" t="n">
-        <v>1</v>
-      </c>
-      <c r="H144" t="s">
-        <v>4</v>
-      </c>
-      <c r="I144" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="s">
-        <v>0</v>
-      </c>
-      <c r="C145" t="s">
-        <v>1</v>
-      </c>
-      <c r="D145" t="n">
-        <v>144</v>
-      </c>
-      <c r="E145" t="s">
-        <v>288</v>
-      </c>
-      <c r="F145" t="s">
-        <v>289</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1</v>
-      </c>
-      <c r="H145" t="s">
-        <v>4</v>
-      </c>
-      <c r="I145" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="s">
-        <v>0</v>
-      </c>
-      <c r="C146" t="s">
-        <v>1</v>
-      </c>
-      <c r="D146" t="n">
-        <v>145</v>
-      </c>
-      <c r="E146" t="s">
-        <v>290</v>
-      </c>
-      <c r="F146" t="s">
-        <v>291</v>
-      </c>
-      <c r="G146" t="n">
-        <v>1</v>
-      </c>
-      <c r="H146" t="s">
-        <v>4</v>
-      </c>
-      <c r="I146" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C147" t="s">
-        <v>1</v>
-      </c>
-      <c r="D147" t="n">
-        <v>146</v>
-      </c>
-      <c r="E147" t="s">
-        <v>292</v>
-      </c>
-      <c r="F147" t="s">
-        <v>293</v>
-      </c>
-      <c r="G147" t="n">
-        <v>1</v>
-      </c>
-      <c r="H147" t="s">
-        <v>4</v>
-      </c>
-      <c r="I147" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="s">
-        <v>0</v>
-      </c>
-      <c r="C148" t="s">
-        <v>1</v>
-      </c>
-      <c r="D148" t="n">
-        <v>147</v>
-      </c>
-      <c r="E148" t="s">
-        <v>294</v>
-      </c>
-      <c r="F148" t="s">
-        <v>295</v>
-      </c>
-      <c r="G148" t="n">
-        <v>1</v>
-      </c>
-      <c r="H148" t="s">
-        <v>4</v>
-      </c>
-      <c r="I148" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="s">
-        <v>0</v>
-      </c>
-      <c r="C149" t="s">
-        <v>1</v>
-      </c>
-      <c r="D149" t="n">
-        <v>148</v>
-      </c>
-      <c r="E149" t="s">
-        <v>296</v>
-      </c>
-      <c r="F149" t="s">
-        <v>297</v>
-      </c>
-      <c r="G149" t="n">
-        <v>1</v>
-      </c>
-      <c r="H149" t="s">
-        <v>4</v>
-      </c>
-      <c r="I149" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C150" t="s">
-        <v>1</v>
-      </c>
-      <c r="D150" t="n">
-        <v>149</v>
-      </c>
-      <c r="E150" t="s">
-        <v>298</v>
-      </c>
-      <c r="F150" t="s">
-        <v>299</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1</v>
-      </c>
-      <c r="H150" t="s">
-        <v>4</v>
-      </c>
-      <c r="I150" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="s">
-        <v>0</v>
-      </c>
-      <c r="C151" t="s">
-        <v>1</v>
-      </c>
-      <c r="D151" t="n">
-        <v>150</v>
-      </c>
-      <c r="E151" t="s">
-        <v>300</v>
-      </c>
-      <c r="F151" t="s">
-        <v>301</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1</v>
-      </c>
-      <c r="H151" t="s">
-        <v>4</v>
-      </c>
-      <c r="I151" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="s">
-        <v>0</v>
-      </c>
-      <c r="C152" t="s">
-        <v>1</v>
-      </c>
-      <c r="D152" t="n">
-        <v>151</v>
-      </c>
-      <c r="E152" t="s">
-        <v>302</v>
-      </c>
-      <c r="F152" t="s">
-        <v>303</v>
-      </c>
-      <c r="G152" t="n">
-        <v>1</v>
-      </c>
-      <c r="H152" t="s">
-        <v>4</v>
-      </c>
-      <c r="I152" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="s">
-        <v>0</v>
-      </c>
-      <c r="C153" t="s">
-        <v>1</v>
-      </c>
-      <c r="D153" t="n">
-        <v>152</v>
-      </c>
-      <c r="E153" t="s">
-        <v>304</v>
-      </c>
-      <c r="F153" t="s">
-        <v>305</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1</v>
-      </c>
-      <c r="H153" t="s">
-        <v>4</v>
-      </c>
-      <c r="I153" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="s">
-        <v>0</v>
-      </c>
-      <c r="C154" t="s">
-        <v>1</v>
-      </c>
-      <c r="D154" t="n">
-        <v>153</v>
-      </c>
-      <c r="E154" t="s">
-        <v>306</v>
-      </c>
-      <c r="F154" t="s">
-        <v>307</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1</v>
-      </c>
-      <c r="H154" t="s">
-        <v>4</v>
-      </c>
-      <c r="I154" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="s">
-        <v>0</v>
-      </c>
-      <c r="C155" t="s">
-        <v>1</v>
-      </c>
-      <c r="D155" t="n">
-        <v>154</v>
-      </c>
-      <c r="E155" t="s">
-        <v>308</v>
-      </c>
-      <c r="F155" t="s">
-        <v>309</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1</v>
-      </c>
-      <c r="H155" t="s">
-        <v>4</v>
-      </c>
-      <c r="I155" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="s">
-        <v>0</v>
-      </c>
-      <c r="C156" t="s">
-        <v>1</v>
-      </c>
-      <c r="D156" t="n">
-        <v>155</v>
-      </c>
-      <c r="E156" t="s">
-        <v>310</v>
-      </c>
-      <c r="F156" t="s">
-        <v>311</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1</v>
-      </c>
-      <c r="H156" t="s">
-        <v>4</v>
-      </c>
-      <c r="I156" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="s">
-        <v>0</v>
-      </c>
-      <c r="C157" t="s">
-        <v>1</v>
-      </c>
-      <c r="D157" t="n">
-        <v>156</v>
-      </c>
-      <c r="E157" t="s">
-        <v>312</v>
-      </c>
-      <c r="F157" t="s">
-        <v>313</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1</v>
-      </c>
-      <c r="H157" t="s">
-        <v>4</v>
-      </c>
-      <c r="I157" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="s">
-        <v>0</v>
-      </c>
-      <c r="C158" t="s">
-        <v>1</v>
-      </c>
-      <c r="D158" t="n">
-        <v>157</v>
-      </c>
-      <c r="E158" t="s">
-        <v>314</v>
-      </c>
-      <c r="F158" t="s">
-        <v>315</v>
-      </c>
-      <c r="G158" t="n">
-        <v>1</v>
-      </c>
-      <c r="H158" t="s">
-        <v>4</v>
-      </c>
-      <c r="I158" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="s">
-        <v>0</v>
-      </c>
-      <c r="C159" t="s">
-        <v>1</v>
-      </c>
-      <c r="D159" t="n">
-        <v>158</v>
-      </c>
-      <c r="E159" t="s">
-        <v>316</v>
-      </c>
-      <c r="F159" t="s">
-        <v>317</v>
-      </c>
-      <c r="G159" t="n">
-        <v>1</v>
-      </c>
-      <c r="H159" t="s">
-        <v>4</v>
-      </c>
-      <c r="I159" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
-        <v>0</v>
-      </c>
-      <c r="C160" t="s">
-        <v>1</v>
-      </c>
-      <c r="D160" t="n">
-        <v>159</v>
-      </c>
-      <c r="E160" t="s">
-        <v>318</v>
-      </c>
-      <c r="F160" t="s">
-        <v>319</v>
-      </c>
-      <c r="G160" t="n">
-        <v>1</v>
-      </c>
-      <c r="H160" t="s">
-        <v>4</v>
-      </c>
-      <c r="I160" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" t="s">
-        <v>1</v>
-      </c>
-      <c r="D161" t="n">
-        <v>160</v>
-      </c>
-      <c r="E161" t="s">
-        <v>320</v>
-      </c>
-      <c r="F161" t="s">
-        <v>321</v>
-      </c>
-      <c r="G161" t="n">
-        <v>1</v>
-      </c>
-      <c r="H161" t="s">
-        <v>4</v>
-      </c>
-      <c r="I161" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="s">
-        <v>0</v>
-      </c>
-      <c r="C162" t="s">
-        <v>1</v>
-      </c>
-      <c r="D162" t="n">
-        <v>161</v>
-      </c>
-      <c r="E162" t="s">
-        <v>322</v>
-      </c>
-      <c r="F162" t="s">
-        <v>323</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1</v>
-      </c>
-      <c r="H162" t="s">
-        <v>4</v>
-      </c>
-      <c r="I162" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="s">
-        <v>0</v>
-      </c>
-      <c r="C163" t="s">
-        <v>1</v>
-      </c>
-      <c r="D163" t="n">
-        <v>162</v>
-      </c>
-      <c r="E163" t="s">
-        <v>324</v>
-      </c>
-      <c r="F163" t="s">
-        <v>325</v>
-      </c>
-      <c r="G163" t="n">
-        <v>1</v>
-      </c>
-      <c r="H163" t="s">
-        <v>4</v>
-      </c>
-      <c r="I163" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="s">
-        <v>0</v>
-      </c>
-      <c r="C164" t="s">
-        <v>1</v>
-      </c>
-      <c r="D164" t="n">
-        <v>163</v>
-      </c>
-      <c r="E164" t="s">
-        <v>326</v>
-      </c>
-      <c r="F164" t="s">
-        <v>327</v>
-      </c>
-      <c r="G164" t="n">
-        <v>1</v>
-      </c>
-      <c r="H164" t="s">
-        <v>4</v>
-      </c>
-      <c r="I164" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/政策_政策_计划_intext.xlsx
+++ b/xlsx/政策_政策_计划_intext.xlsx
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>心理學史</t>
+    <t>心理学史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Subfields_of_psychology</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%B8%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>異常心理學</t>
+    <t>异常心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E9%81%97%E4%BC%A0%E5%AD%A6</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物心理學</t>
+    <t>生物心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知心理學</t>
+    <t>认知心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較心理學</t>
+    <t>比较心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cross-cultural_psychology</t>
@@ -107,43 +107,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>發展心理學</t>
+    <t>发展心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化心理學</t>
+    <t>演化心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>實驗心理學</t>
+    <t>实验心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學心理學</t>
+    <t>数学心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經心理學</t>
+    <t>神经心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人格心理學</t>
+    <t>人格心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%9D%A2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>正面心理學</t>
+    <t>正面心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quantitative_psychology</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會心理學</t>
+    <t>社会心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -167,43 +167,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E8%A1%8C%E7%82%BA%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>應用行為分析</t>
+    <t>应用行为分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>臨床心理學</t>
+    <t>临床心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社區心理學</t>
+    <t>社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>消費行為</t>
+    <t>消费行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%AE%E5%95%86%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>諮商心理學</t>
+    <t>谘商心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>批判社區心理學</t>
+    <t>批判社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育心理學</t>
+    <t>教育心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_psychology</t>
@@ -215,19 +215,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>人因工程學</t>
+    <t>人因工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>法庭心理學</t>
+    <t>法庭心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康心理學</t>
+    <t>健康心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC%E4%B8%BB%E4%B9%89%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E8%88%87%E7%B5%84%E7%B9%94%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業與組織心理學</t>
+    <t>工业与组织心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ontological_hermeneutics</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宗教心理學</t>
+    <t>宗教心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/School_psychology</t>
@@ -299,19 +299,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>運動心理學</t>
+    <t>运动心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>交通心理學</t>
+    <t>交通心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E7%A7%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學科列表</t>
+    <t>心理学学科列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychology_organizations</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>心理學家</t>
+    <t>心理学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychotherapies</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E6%B4%BE%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學派列表</t>
+    <t>心理学学派列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Timeline_of_psychology</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知神經科學</t>
+    <t>认知神经科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%99%BA%E7%97%87</t>
@@ -401,19 +401,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%85%A6</t>
   </si>
   <si>
-    <t>人腦</t>
+    <t>人脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E8%A7%A3%E5%89%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經解剖學</t>
+    <t>神经解剖学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%94%9F%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經生理學</t>
+    <t>神经生理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neuropsychological_assessment</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96</t>
   </si>
   <si>
-    <t>決策</t>
+    <t>决策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E6%8E%A7%E5%8A%9F%E8%83%BD</t>
@@ -473,19 +473,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>自然語言</t>
+    <t>自然语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>學習</t>
+    <t>学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6</t>
   </si>
   <si>
-    <t>記憶</t>
+    <t>记忆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%90%E5%8A%A8%E5%8D%8F%E8%B0%83</t>
@@ -497,13 +497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%A6%BA</t>
   </si>
   <si>
-    <t>知覺</t>
+    <t>知觉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%B1%BA%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>解決問題</t>
+    <t>解决问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E6%83%B3</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%B0%BC%E6%96%AF%C2%B7%E8%93%8B%E5%90%89</t>
   </si>
   <si>
-    <t>費尼斯·蓋吉</t>
+    <t>费尼斯·盖吉</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Norman_Geschwind</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%88%A9%E4%BD%9B%C2%B7%E8%96%A9%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>奧利佛·薩克斯</t>
+    <t>奥利佛·萨克斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mark_Rosenzweig</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%8E%AB%E8%90%8A%E6%A3%AE</t>
   </si>
   <si>
-    <t>亨利·莫萊森</t>
+    <t>亨利·莫莱森</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/K.C._(patient)</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E7%9F%AD%E6%99%BA%E8%83%BD%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>簡短智能測驗</t>
+    <t>简短智能测验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rey-Osterrieth_Complex_Figure</t>
@@ -707,13 +707,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E9%AD%AF%E6%99%AE%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>斯特魯普效應</t>
+    <t>斯特鲁普效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E6%B0%8F%E6%99%BA%E5%8A%9B%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>魏氏智力測驗</t>
+    <t>魏氏智力测验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wechsler_Memory_Scale</t>
@@ -731,19 +731,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%96%E5%8A%83_(%E5%B0%8F%E5%93%81)</t>
   </si>
   <si>
-    <t>策劃 (小品)</t>
+    <t>策划 (小品)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>企業</t>
+    <t>企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
   </si>
   <si>
-    <t>商業</t>
+    <t>商业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8</t>
@@ -755,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%A7%E5%95%8F</t>
   </si>
   <si>
-    <t>顧問</t>
+    <t>顾问</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E5%8A%83</t>
